--- a/storage/archivos/P1.xlsx
+++ b/storage/archivos/P1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="108">
   <si>
     <t>ESCUINTLA</t>
   </si>
@@ -270,13 +270,91 @@
   </si>
   <si>
     <t>Primaria</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ DEL QUICHE</t>
+  </si>
+  <si>
+    <t>QUICHE</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>05-02-1950-54</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>05-02-1950-55</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>05-02-1950-56</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>05-02-1950-57</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>05-02-1950-58</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>05-02-1950-59</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>05-02-1950-60</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>05-02-1950-61</t>
+  </si>
+  <si>
+    <t>direct 15</t>
+  </si>
+  <si>
+    <t>direct 16</t>
+  </si>
+  <si>
+    <t>direct 17</t>
+  </si>
+  <si>
+    <t>direct 18</t>
+  </si>
+  <si>
+    <t>direct 19</t>
+  </si>
+  <si>
+    <t>direct 20</t>
+  </si>
+  <si>
+    <t>direct 21</t>
+  </si>
+  <si>
+    <t>direct 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +409,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -407,7 +491,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +523,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -724,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1122,9 @@
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1379,9 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1740,6 +1829,526 @@
         <v>1</v>
       </c>
       <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
+        <v>55154883</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="4">
+        <v>12</v>
+      </c>
+      <c r="P16" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2">
+        <v>55154884</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="4">
+        <v>12</v>
+      </c>
+      <c r="P17" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>55154885</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="4">
+        <v>12</v>
+      </c>
+      <c r="P18" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2">
+        <v>55154886</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="4">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="2">
+        <v>55154887</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="4">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2">
+        <v>55154888</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="4">
+        <v>12</v>
+      </c>
+      <c r="P21" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2">
+        <v>55154889</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="4">
+        <v>12</v>
+      </c>
+      <c r="P22" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2">
+        <v>55154890</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="4">
+        <v>12</v>
+      </c>
+      <c r="P23" s="4">
+        <v>687</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1751,455 +2360,447 @@
     <hyperlink ref="J7" r:id="rId6"/>
     <hyperlink ref="J8" r:id="rId7"/>
     <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J64" r:id="rId15" display="mailto:escuelasantacecilia@hotmail.es"/>
-    <hyperlink ref="J63" r:id="rId16" display="mailto:grindyvillalobos83@gmail.com"/>
-    <hyperlink ref="J62" r:id="rId17" display="mailto:titiachiqui@hotmail.com"/>
-    <hyperlink ref="J71" r:id="rId18" display="mailto:melvingr10@gmail.com"/>
-    <hyperlink ref="J308" r:id="rId19" display="mailto:vicmayem1@hotmail.es"/>
-    <hyperlink ref="J275" r:id="rId20" display="mailto:ferdydef@gmail.com"/>
-    <hyperlink ref="J23" r:id="rId21" display="mailto:ruthyamorcito@yahoo.com"/>
-    <hyperlink ref="J28" r:id="rId22" display="mailto:haraaguilarq@gmail.com"/>
-    <hyperlink ref="J25" r:id="rId23" display="mailto:keylor11@yahoo.com"/>
-    <hyperlink ref="J274" r:id="rId24" display="mailto:evelinchiyut@gmail.com"/>
-    <hyperlink ref="J319" r:id="rId25" display="mailto:arnulfoefrain@gmail.com"/>
-    <hyperlink ref="J318" r:id="rId26" display="mailto:josealfredo_villagran@hotmail.com"/>
-    <hyperlink ref="J182" r:id="rId27" display="mailto:anaveronicagomezgarcia@hotmail.com"/>
-    <hyperlink ref="J17" r:id="rId28" display="mailto:nicolas18719@gmail.com"/>
-    <hyperlink ref="J18" r:id="rId29" display="mailto:osmanaj2003@gmail.com"/>
-    <hyperlink ref="J19" r:id="rId30" display="mailto:jseduardo1984@gmail.com"/>
-    <hyperlink ref="J16" r:id="rId31" display="mailto:elbapata@gmail.com"/>
-    <hyperlink ref="J27" r:id="rId32" display="mailto:hectomendez10@gmail.com"/>
-    <hyperlink ref="J26" r:id="rId33" display="mailto:elizabethoxi@gmail.com"/>
-    <hyperlink ref="J24" r:id="rId34" display="mailto:albamar1985@hotmail.com"/>
-    <hyperlink ref="J32" r:id="rId35" display="mailto:lamontufar@gmail.com"/>
-    <hyperlink ref="J34" r:id="rId36" display="mailto:oliberant@yahoo.es"/>
-    <hyperlink ref="J29" r:id="rId37" display="mailto:cgironaranadevalderrama@gmail.com"/>
-    <hyperlink ref="J306" r:id="rId38" display="mailto:amparogodr1@hotmail.com"/>
-    <hyperlink ref="J244" r:id="rId39" display="mailto:ajtijedso@hotmail.com"/>
-    <hyperlink ref="J163" r:id="rId40" display="mailto:antocarriixt@gmail.com"/>
-    <hyperlink ref="J612" r:id="rId41" display="mailto:soloman_777@hotmail.com"/>
-    <hyperlink ref="J629" r:id="rId42" display="mailto:nelylorenaer@gmail.com"/>
-    <hyperlink ref="J626" r:id="rId43" display="mailto:emiliocruz3@hotmail.com"/>
-    <hyperlink ref="J618" r:id="rId44" display="mailto:ojlfamilia@gmail.com"/>
-    <hyperlink ref="J616" r:id="rId45" display="mailto:eladiorabinal@hotmail.com"/>
-    <hyperlink ref="J428" r:id="rId46" display="mailto:raymundo_navarro@yahoo.es"/>
-    <hyperlink ref="J427" r:id="rId47" display="mailto:demetrio.martinchilel@yahoo.es"/>
-    <hyperlink ref="J426" r:id="rId48" display="mailto:oraciolopez@hotmail.es"/>
-    <hyperlink ref="J410" r:id="rId49" display="mailto:eormlaindepedencia@gmail.com"/>
-    <hyperlink ref="J409" r:id="rId50" display="mailto:soniaguille16@hotmail.com"/>
-    <hyperlink ref="J408" r:id="rId51" display="mailto:blanqui.princess@hotmail.com"/>
-    <hyperlink ref="J404" r:id="rId52" display="mailto:rudymaldonado89@gmail.com"/>
-    <hyperlink ref="J403" r:id="rId53" display="mailto:marytieera@hotmail.com"/>
-    <hyperlink ref="J386" r:id="rId54" display="mailto:netochij@hotmail.com"/>
-    <hyperlink ref="J379" r:id="rId55" display="mailto:12-07-3616-43@mineduc.edu.gt"/>
-    <hyperlink ref="J371" r:id="rId56" display="mailto:zacariastomasapo5030@gmail.com"/>
-    <hyperlink ref="J362" r:id="rId57" display="mailto:sacherlisa@gmail.com"/>
-    <hyperlink ref="J185" r:id="rId58" display="mailto:sandra512garcia@gmail.com"/>
-    <hyperlink ref="J355" r:id="rId59" display="mailto:negritoescorpion@gmail.com"/>
-    <hyperlink ref="J352" r:id="rId60" display="mailto:ccasianodunois@gmail.com"/>
-    <hyperlink ref="J350" r:id="rId61" display="mailto:emyalfaro122@hotmail.com"/>
-    <hyperlink ref="J348" r:id="rId62" display="mailto:estradarikdababahykua329@gmail.com"/>
-    <hyperlink ref="J345" r:id="rId63" display="mailto:marcoliberal@hotmail.com"/>
-    <hyperlink ref="J343" r:id="rId64" display="mailto:lester91285@hotmail.com"/>
-    <hyperlink ref="J340" r:id="rId65" display="mailto:jlcuyuch21@hotmail.com"/>
-    <hyperlink ref="J339" r:id="rId66" display="mailto:gabervillatoro@outlook.es"/>
-    <hyperlink ref="J337" r:id="rId67" display="mailto:mpdvl@hotmail.com"/>
-    <hyperlink ref="J336" r:id="rId68" display="mailto:paulabatres1986@gmail.com"/>
-    <hyperlink ref="J242" r:id="rId69" display="mailto:amindadiazdeleon@gmail.com"/>
-    <hyperlink ref="J233" r:id="rId70" display="mailto:vifranco88@gmail.com"/>
-    <hyperlink ref="J202" r:id="rId71" display="mailto:blancalidia@gmail.com"/>
-    <hyperlink ref="J181" r:id="rId72" display="mailto:santizolucrecia21@gmail.com"/>
-    <hyperlink ref="J194" r:id="rId73" display="mailto:angelinapu@hotmail.com"/>
-    <hyperlink ref="J170" r:id="rId74" display="mailto:mari.ele28@hotmail.com"/>
-    <hyperlink ref="J157" r:id="rId75" display="mailto:lilaazul90@live.com"/>
-    <hyperlink ref="J155" r:id="rId76" display="mailto:selvinpacheco82@yahoo.com"/>
-    <hyperlink ref="J148" r:id="rId77" display="mailto:constugale@yahoo.com"/>
-    <hyperlink ref="J125" r:id="rId78" display="mailto:oliviachavajay@gmail.com"/>
-    <hyperlink ref="J116" r:id="rId79" display="mailto:anatorrojas459@gmail.com"/>
-    <hyperlink ref="J104" r:id="rId80" display="mailto:magdalenamontenegro2016@gmail.com"/>
-    <hyperlink ref="J82" r:id="rId81" display="mailto:cfristzun1990@gmail.com"/>
-    <hyperlink ref="J81" r:id="rId82" display="mailto:verdegonsa@gmail.com"/>
-    <hyperlink ref="J80" r:id="rId83" display="mailto:airmaaracely@gmail.com"/>
-    <hyperlink ref="J662" r:id="rId84" display="mailto:celsotox@yahoo.com"/>
-    <hyperlink ref="J661" r:id="rId85" display="mailto:manuelsi2018@gmail.com"/>
-    <hyperlink ref="J660" r:id="rId86" display="mailto:gabicucy@yahoo.com"/>
-    <hyperlink ref="J658" r:id="rId87" display="mailto:juandedioschocflores@gmail.com"/>
-    <hyperlink ref="J657" r:id="rId88" display="mailto:eormaldeatzunutz@gmail.com"/>
-    <hyperlink ref="J641" r:id="rId89" display="mailto:davidcalmoran@gmail.com"/>
-    <hyperlink ref="J640" r:id="rId90" display="mailto:tello_santi@hotmail.com"/>
-    <hyperlink ref="J639" r:id="rId91" display="mailto:julioamalem@hotmail.com"/>
-    <hyperlink ref="J673" r:id="rId92" display="mailto:kdelvalle617@gmail.com"/>
-    <hyperlink ref="J590" r:id="rId93" display="mailto:lopezsheni83@gmail.com"/>
-    <hyperlink ref="J588" r:id="rId94" display="mailto:eormsajracanchituj@gmail.com"/>
-    <hyperlink ref="J578" r:id="rId95" display="mailto:pedroramosrodriguez12@gmail.com"/>
-    <hyperlink ref="J560" r:id="rId96" display="mailto:rodolfochicosorio@gmail.com"/>
-    <hyperlink ref="J605" r:id="rId97" display="mailto:joseortizcos01@gmail.com"/>
-    <hyperlink ref="J604" r:id="rId98" display="mailto:mchocojsocop@yahoo.es"/>
-    <hyperlink ref="J450" r:id="rId99" display="mailto:filvega@hotmail.com"/>
-    <hyperlink ref="J611" r:id="rId100" display="mailto:stisanta@gmail.com"/>
-    <hyperlink ref="J610" r:id="rId101" display="mailto:oscarjo2012@hotmail.com"/>
-    <hyperlink ref="J261" r:id="rId102" display="mailto:dial1928@hotmail.com"/>
-    <hyperlink ref="J515" r:id="rId103" display="mailto:angelicacano5@gmail.com"/>
-    <hyperlink ref="J519" r:id="rId104" display="mailto:rosaarmas75@gmail.com"/>
-    <hyperlink ref="J88" r:id="rId105" display="mailto:dilisagastume@hotmail.com"/>
-    <hyperlink ref="J87" r:id="rId106" display="mailto:duvischavez@gmail.com"/>
-    <hyperlink ref="J193" r:id="rId107" display="mailto:ednerzacarias@gmail.com"/>
-    <hyperlink ref="J180" r:id="rId108" display="mailto:Agusjua2003@yahoo.es"/>
-    <hyperlink ref="J192" r:id="rId109" display="mailto:hjaneth12@hotmail.com"/>
-    <hyperlink ref="J514" r:id="rId110" display="mailto:eormcb2016@gmail.com"/>
-    <hyperlink ref="J513" r:id="rId111" display="mailto:eghcpeta@gmail.com"/>
-    <hyperlink ref="J115" r:id="rId112" display="mailto:dinorita@hotmail.com"/>
-    <hyperlink ref="J114" r:id="rId113" display="mailto:contrerasgarcias703@gmail.com"/>
-    <hyperlink ref="J107" r:id="rId114" display="mailto:leoneldavila217@gmail.com"/>
-    <hyperlink ref="J106" r:id="rId115" display="mailto:hernandezgomez@live.com"/>
-    <hyperlink ref="J105" r:id="rId116" display="mailto:ivasquezyelmo@gmail.com"/>
-    <hyperlink ref="J99" r:id="rId117" display="mailto:paolorobertoc@gmail.com"/>
-    <hyperlink ref="J100" r:id="rId118" display="mailto:raquelitagomez78@hotmail.com"/>
-    <hyperlink ref="J101" r:id="rId119" display="mailto:carmeloalvarado74@hotmail.com"/>
-    <hyperlink ref="J86" r:id="rId120" display="mailto:eoummavitolejv@hotmail.com"/>
-    <hyperlink ref="J85" r:id="rId121" display="mailto:wilianjimenez98@gmail.com"/>
-    <hyperlink ref="J84" r:id="rId122" display="mailto:jhsadolfo@gmail.com"/>
-    <hyperlink ref="J83" r:id="rId123" display="mailto:chonitacortez@gmail.com"/>
-    <hyperlink ref="J79" r:id="rId124" display="mailto:melitaml@hotmail.com"/>
-    <hyperlink ref="J78" r:id="rId125" display="mailto:icahuec204@gmail.com"/>
-    <hyperlink ref="J77" r:id="rId126" display="mailto:flor.103@hotmail.com"/>
-    <hyperlink ref="J98" r:id="rId127" display="mailto:valenzuelamelgar@hotmail.com"/>
-    <hyperlink ref="J97" r:id="rId128" display="mailto:angelicalopez19799@gmail.com"/>
-    <hyperlink ref="J103" r:id="rId129" display="mailto:marlonidesar2017@gmail.com"/>
-    <hyperlink ref="J96" r:id="rId130" display="mailto:proftuliogalicia@hotmail.com"/>
-    <hyperlink ref="J102" r:id="rId131" display="mailto:muni_ixhuatan@hotmail.com"/>
-    <hyperlink ref="J110" r:id="rId132" display="mailto:mcecy.rg@gmail.com"/>
-    <hyperlink ref="J109" r:id="rId133" display="mailto:emarlencoradoh83@gmail.com"/>
-    <hyperlink ref="J332" r:id="rId134" display="mailto:ingridjoperez@hotmail.com"/>
-    <hyperlink ref="J331" r:id="rId135" display="mailto:willianchavez555@gmail.com"/>
-    <hyperlink ref="J330" r:id="rId136" display="mailto:eormlineab2sectorsiscurvadelar@gmail.com"/>
-    <hyperlink ref="J22" r:id="rId137" display="mailto:jaimeloch@hotmail.com"/>
-    <hyperlink ref="J21" r:id="rId138" display="mailto:noemitash@gmail.com"/>
-    <hyperlink ref="J20" r:id="rId139" display="mailto:carlosyp1@hotmail.com"/>
-    <hyperlink ref="J197" r:id="rId140" display="mailto:sontaydilma@gmail.com"/>
-    <hyperlink ref="J196" r:id="rId141" display="mailto:franciscoeorma@gmail.com"/>
-    <hyperlink ref="J195" r:id="rId142" display="mailto:jaimecch@hotmail.es"/>
-    <hyperlink ref="J191" r:id="rId143" display="mailto:antoniott_65@hotmail.com"/>
-    <hyperlink ref="J190" r:id="rId144" display="mailto:ingrisdamaris@gmail.com"/>
-    <hyperlink ref="J189" r:id="rId145" display="mailto:francisco_lux.c@hotmail.com"/>
-    <hyperlink ref="J188" r:id="rId146" display="mailto:paxmarc@gmail.com"/>
-    <hyperlink ref="J187" r:id="rId147" display="mailto:celsontay@gmail.coom"/>
-    <hyperlink ref="J186" r:id="rId148" display="mailto:ixmayj@gmail.com"/>
-    <hyperlink ref="J184" r:id="rId149" display="mailto:gabino10morales@gmail.com"/>
-    <hyperlink ref="J183" r:id="rId150" display="mailto:pacochepe25@gmail.com"/>
-    <hyperlink ref="J179" r:id="rId151" display="mailto:maryter67@yahoo.com"/>
-    <hyperlink ref="J178" r:id="rId152" display="mailto:ola2386@hotmail.com"/>
-    <hyperlink ref="J177" r:id="rId153" display="mailto:astrid_mq2387@hotmail.com"/>
-    <hyperlink ref="J176" r:id="rId154" display="mailto:escuelamarianogalvez@gmail.com"/>
-    <hyperlink ref="J175" r:id="rId155" display="mailto:isabeltoto@yahoo.es"/>
-    <hyperlink ref="J174" r:id="rId156" display="mailto:veliaalejandral@yahoo.com"/>
-    <hyperlink ref="J395" r:id="rId157" display="mailto:ericmiranda9@hotmail.com"/>
-    <hyperlink ref="J394" r:id="rId158" display="mailto:ana_de_trejo@hotmail.com"/>
-    <hyperlink ref="J393" r:id="rId159" display="mailto:juancarlosventuragonzales@gmail.com"/>
-    <hyperlink ref="J134" r:id="rId160" display="mailto:juventinotimoteoot@gmail.com"/>
-    <hyperlink ref="J167" r:id="rId161" display="mailto:nohecotuc@hotmail.com"/>
-    <hyperlink ref="J166" r:id="rId162" display="mailto:efraincito1@gmail.com"/>
-    <hyperlink ref="J165" r:id="rId163" display="mailto:irmavasquez77@yahoo.es"/>
-    <hyperlink ref="J169" r:id="rId164" display="mailto:yojcompedro@yahoo.es"/>
-    <hyperlink ref="J173" r:id="rId165" display="mailto:dolocq@yahoo.es"/>
-    <hyperlink ref="J172" r:id="rId166" display="mailto:dcotzalbaran@gmail.com"/>
-    <hyperlink ref="J171" r:id="rId167" display="mailto:joemessi15@gmail.com"/>
-    <hyperlink ref="J168" r:id="rId168" display="mailto:ibechava4@gmail.com"/>
-    <hyperlink ref="J136" r:id="rId169" display="mailto:marinayac45@gmail.com"/>
-    <hyperlink ref="J135" r:id="rId170" display="mailto:asalquil10@gmail.com"/>
-    <hyperlink ref="J133" r:id="rId171" display="mailto:justoshomtahay@gmail.com"/>
-    <hyperlink ref="J132" r:id="rId172" display="mailto:angeltepaz17@hotmail.com"/>
-    <hyperlink ref="J131" r:id="rId173" display="mailto:tonasac@gmail.com"/>
-    <hyperlink ref="J130" r:id="rId174" display="mailto:luis.tax@hotmail.com"/>
-    <hyperlink ref="J129" r:id="rId175" display="mailto:pachipac0146@gmail.com"/>
-    <hyperlink ref="J128" r:id="rId176" display="mailto:luciaarelixumyacq@gmail.com"/>
-    <hyperlink ref="J127" r:id="rId177" display="mailto:floritesh@ghotmail.com"/>
-    <hyperlink ref="J126" r:id="rId178" display="mailto:leonelvasx7@gmail.com"/>
-    <hyperlink ref="J124" r:id="rId179" display="mailto:kndsosa@gmail.com"/>
-    <hyperlink ref="J123" r:id="rId180" display="mailto:lgladizhernandez@gmail.com"/>
-    <hyperlink ref="J122" r:id="rId181" display="mailto:cuyenseca@gmail.com"/>
-    <hyperlink ref="J121" r:id="rId182" display="mailto:peter10.8.73@gmail.com"/>
-    <hyperlink ref="J120" r:id="rId183" display="mailto:roqueletel@gmail.com"/>
-    <hyperlink ref="J140" r:id="rId184" display="mailto:carlos_chiyal@hotmail.com"/>
-    <hyperlink ref="J139" r:id="rId185" display="mailto:mchiroychumil@gmail.com"/>
-    <hyperlink ref="J138" r:id="rId186" display="mailto:juliade3375@yahoo.es"/>
-    <hyperlink ref="J119" r:id="rId187" display="mailto:imemenchu20@gmail.com"/>
-    <hyperlink ref="J118" r:id="rId188" display="mailto:avebocel@hotmail.com"/>
-    <hyperlink ref="J117" r:id="rId189" display="mailto:jalfonso7777@outlook.com"/>
-    <hyperlink ref="J161" r:id="rId190" display="mailto:cucratzam@gmail.com"/>
-    <hyperlink ref="J160" r:id="rId191" display="mailto:marcosporon@gmail.com"/>
-    <hyperlink ref="J159" r:id="rId192" display="mailto:cpcarmelina257@gmail.com"/>
-    <hyperlink ref="J162" r:id="rId193" display="mailto:tinurifamen@gmail.com"/>
-    <hyperlink ref="J147" r:id="rId194" display="mailto:rodrigoajtzip@yahoo.com"/>
-    <hyperlink ref="J154" r:id="rId195" display="mailto:asulugui@yahoo.com"/>
-    <hyperlink ref="J153" r:id="rId196" display="mailto:jmsnahe@gmail.com"/>
-    <hyperlink ref="J152" r:id="rId197" display="mailto:vicenteperez1962@yahoo.com"/>
-    <hyperlink ref="J151" r:id="rId198" display="mailto:soorey275@hotmail.es"/>
-    <hyperlink ref="J150" r:id="rId199" display="mailto:escuelagregorio@gmail.com"/>
-    <hyperlink ref="J145" r:id="rId200" display="mailto:caminitomary@htomailc.om"/>
-    <hyperlink ref="J144" r:id="rId201" display="mailto:saletis@hotmail.com"/>
-    <hyperlink ref="J156" r:id="rId202" display="mailto:mavhm@yahoo.com"/>
-    <hyperlink ref="J143" r:id="rId203" display="mailto:parabaljuanmarcelino92@gmail.com"/>
-    <hyperlink ref="J142" r:id="rId204" display="mailto:obed.rosales@profesor.usac.edu.gt"/>
-    <hyperlink ref="J141" r:id="rId205" display="mailto:abbymatzar1@gmail.com"/>
-    <hyperlink ref="J449" r:id="rId206" display="mailto:yuris74@hotmail.com"/>
-    <hyperlink ref="J447" r:id="rId207" display="mailto:nuvianinethbecerra@gmail.com"/>
-    <hyperlink ref="J446" r:id="rId208" display="mailto:paulaescobar203@gmail.com"/>
-    <hyperlink ref="J445" r:id="rId209" display="mailto:miltonvelasquezmm@gmail.com"/>
-    <hyperlink ref="J444" r:id="rId210" display="mailto:waltervelasquezlopez@gmail.com"/>
-    <hyperlink ref="J443" r:id="rId211" display="mailto:alberta.barrios@outlook.com"/>
-    <hyperlink ref="J442" r:id="rId212" display="mailto:donald.leon@gmail.com"/>
-    <hyperlink ref="J441" r:id="rId213" display="mailto:bautistaalfredo79@gmail.com"/>
-    <hyperlink ref="J440" r:id="rId214" display="mailto:57296296yu@gmail.com"/>
-    <hyperlink ref="J439" r:id="rId215" display="mailto:bohanergeradeleon@gmail.com"/>
-    <hyperlink ref="J438" r:id="rId216" display="mailto:lopézruben1227@gmail.com"/>
-    <hyperlink ref="J437" r:id="rId217" display="mailto:ambrocio.jacinto@gmail.com"/>
-    <hyperlink ref="J436" r:id="rId218" display="mailto:mauroamba@gmail.com"/>
-    <hyperlink ref="J435" r:id="rId219" display="mailto:fjavier.lpez60@gmail.com"/>
-    <hyperlink ref="J434" r:id="rId220" display="mailto:spgodinez0970@gmail.com"/>
-    <hyperlink ref="J433" r:id="rId221" display="mailto:manuelp0968@gmail.com"/>
-    <hyperlink ref="J432" r:id="rId222" display="mailto:efrainvasques201@gmail.com"/>
-    <hyperlink ref="J431" r:id="rId223" display="mailto:mirnalicia20@gmail.com"/>
-    <hyperlink ref="J430" r:id="rId224" display="mailto:carinborrayes12@gmail.com"/>
-    <hyperlink ref="J429" r:id="rId225" display="mailto:albinelderdeleon@gmail.com"/>
-    <hyperlink ref="J425" r:id="rId226" display="mailto:mirnalisd@gmail.com"/>
-    <hyperlink ref="J424" r:id="rId227" display="mailto:loren-ninethzlz@hotmail.com"/>
-    <hyperlink ref="J423" r:id="rId228" display="mailto:ronaldojlopez@hotmail.com"/>
-    <hyperlink ref="J422" r:id="rId229" display="mailto:12-21-0857-43@mineduc.edu.gt"/>
-    <hyperlink ref="J421" r:id="rId230" display="mailto:1221-0860-43@mineduc.edu.gt"/>
-    <hyperlink ref="J420" r:id="rId231" display="mailto:12-21-0855-43@mineduc.edu.gt"/>
-    <hyperlink ref="J419" r:id="rId232" display="mailto:gusygt2014@gmail.com"/>
-    <hyperlink ref="J418" r:id="rId233" display="mailto:herberdionel1220@gmail.com"/>
-    <hyperlink ref="J417" r:id="rId234" display="mailto:hericriba@hotmail.com"/>
-    <hyperlink ref="J416" r:id="rId235" display="mailto:miangelitoram@hotmail.com"/>
-    <hyperlink ref="J415" r:id="rId236" display="mailto:mariquitadeleon3@hotmail.com"/>
-    <hyperlink ref="J414" r:id="rId237" display="mailto:esvinerick97@gmail.com"/>
-    <hyperlink ref="J413" r:id="rId238" display="mailto:adolfonatareno@hotmail.com"/>
-    <hyperlink ref="J412" r:id="rId239" display="mailto:kryscielito45@gmail.com"/>
-    <hyperlink ref="J411" r:id="rId240" display="mailto:joaquinm18_@hotmail.com"/>
-    <hyperlink ref="J407" r:id="rId241" display="mailto:yulionelopez@gmail.com"/>
-    <hyperlink ref="J405" r:id="rId242" display="mailto:rubibarrios@gmail.com"/>
-    <hyperlink ref="J402" r:id="rId243" display="mailto:victormanuelramirez@gmail.com"/>
-    <hyperlink ref="J400" r:id="rId244" display="mailto:hernanalvarezlopez@gmail.com"/>
-    <hyperlink ref="J399" r:id="rId245" display="mailto:12-14-0641-43@mineduc.edu.gt"/>
-    <hyperlink ref="J375" r:id="rId246" display="mailto:adoro055@gmail.com"/>
-    <hyperlink ref="J376" r:id="rId247" display="mailto:armandomacariodeleon@gmail.com"/>
-    <hyperlink ref="J377" r:id="rId248" display="mailto:walterjuanmdl@gmail.com"/>
-    <hyperlink ref="J378" r:id="rId249" display="mailto:juarezramires175@gmail.com"/>
-    <hyperlink ref="J381" r:id="rId250" display="mailto:sanblamev1@gmail.com"/>
-    <hyperlink ref="J382" r:id="rId251" display="mailto:nicojereortiz@gmail.com"/>
-    <hyperlink ref="J383" r:id="rId252" display="mailto:lobitorequena2015@gmail.com"/>
-    <hyperlink ref="J384" r:id="rId253" display="mailto:zoilavelasquezfuentes@gmail.com"/>
-    <hyperlink ref="J385" r:id="rId254" display="mailto:evaristovaliente68@gmail.com"/>
-    <hyperlink ref="J387" r:id="rId255" display="mailto:marlenylopez1976@gmail.com"/>
-    <hyperlink ref="J388" r:id="rId256" display="mailto:obyadimf@hotmail.com"/>
-    <hyperlink ref="J389" r:id="rId257" display="mailto:urbadomo@hotmail.com"/>
-    <hyperlink ref="J374" r:id="rId258" display="mailto:fbamacaperez@gmail.com"/>
-    <hyperlink ref="J373" r:id="rId259" display="mailto:hbksay@gmail.com"/>
-    <hyperlink ref="J372" r:id="rId260" display="mailto:helenmar3@gmail.com"/>
-    <hyperlink ref="J370" r:id="rId261" display="mailto:josuerj@gmail.com"/>
-    <hyperlink ref="J369" r:id="rId262" display="mailto:sixtomirandasalvador@yahoo.es"/>
-    <hyperlink ref="J368" r:id="rId263" display="mailto:juliogonzalezramirez@yahoo.es"/>
-    <hyperlink ref="J367" r:id="rId264" display="mailto:taracenab@hotmail.com"/>
-    <hyperlink ref="J366" r:id="rId265" display="mailto:ervin.otto@hotmail.es"/>
-    <hyperlink ref="J365" r:id="rId266" display="mailto:fredygomez523@hotmail.com"/>
-    <hyperlink ref="J364" r:id="rId267" display="mailto:memedony2@hotmail.com"/>
-    <hyperlink ref="J363" r:id="rId268" display="mailto:rpaz@mineduc.edu.gt"/>
-    <hyperlink ref="J361" r:id="rId269" display="mailto:joseestuardo12@hotmail.com"/>
-    <hyperlink ref="J360" r:id="rId270" display="mailto:liselyjuarez@gmail.com"/>
-    <hyperlink ref="J335" r:id="rId271" display="mailto:claudia19723246@hotmail.com"/>
-    <hyperlink ref="J359" r:id="rId272" display="mailto:carolina8pere8@gmail.com"/>
-    <hyperlink ref="J358" r:id="rId273" display="mailto:davidhernandezdia1982@gmail.com"/>
-    <hyperlink ref="J354" r:id="rId274" display="mailto:odeleonruiz@gmail.com"/>
-    <hyperlink ref="J351" r:id="rId275" display="mailto:marvineduar68@yahoo.com"/>
-    <hyperlink ref="J347" r:id="rId276" display="mailto:waldemar6266@gmail.com"/>
-    <hyperlink ref="J346" r:id="rId277" display="mailto:catalinasiquina@yahoo.com"/>
-    <hyperlink ref="J344" r:id="rId278" display="mailto:monicabeatrizreyesmartinez@gmail.com"/>
-    <hyperlink ref="J342" r:id="rId279" display="mailto:patriciavelazquez147@gmail.com"/>
-    <hyperlink ref="J341" r:id="rId280" display="mailto:aangelafernandez2012@gmail.com"/>
-    <hyperlink ref="J334" r:id="rId281" display="mailto:madlcu@hotmail.com"/>
-    <hyperlink ref="J333" r:id="rId282" display="mailto:luis.castro-conejo@hotmail.com"/>
-    <hyperlink ref="J575" r:id="rId283" display="mailto:adcamaja2@gmail.com"/>
-    <hyperlink ref="J608" r:id="rId284" display="mailto:mr0914231@gmail.com"/>
-    <hyperlink ref="J607" r:id="rId285" display="mailto:14-21-0764-43@mineduc.edu.gt"/>
-    <hyperlink ref="J606" r:id="rId286" display="mailto:14-21-0005-43@mineduc.edu.gt"/>
-    <hyperlink ref="J603" r:id="rId287" display="mailto:rafaelgaspar64@gmail.com"/>
-    <hyperlink ref="J602" r:id="rId288" display="mailto:hugovecino05@gmail.com"/>
-    <hyperlink ref="J601" r:id="rId289" display="mailto:eliascalcalel@hotmail.com"/>
-    <hyperlink ref="J600" r:id="rId290" display="mailto:kyessita@gmail.com"/>
-    <hyperlink ref="J599" r:id="rId291" display="mailto:juanquinilla1969@gmail.com"/>
-    <hyperlink ref="J598" r:id="rId292" display="mailto:ciprianjacobo4566@gmail.com"/>
-    <hyperlink ref="J597" r:id="rId293" display="mailto:yrolfcruz11@hotmail.com"/>
-    <hyperlink ref="J596" r:id="rId294" display="mailto:tiagosolis85@gmail.com"/>
-    <hyperlink ref="J595" r:id="rId295" display="mailto:adolfo23salazar@hotmail.com"/>
-    <hyperlink ref="J594" r:id="rId296" display="mailto:jcale2016@gmail.com"/>
-    <hyperlink ref="J593" r:id="rId297" display="mailto:pajaritolancerio@gmail.com"/>
-    <hyperlink ref="J591" r:id="rId298" display="mailto:marytercero2015@gmail.com"/>
-    <hyperlink ref="J587" r:id="rId299" display="mailto:reynamota.08@gmail.com"/>
-    <hyperlink ref="J586" r:id="rId300" display="mailto:pchachsaquic@hotmail.es"/>
-    <hyperlink ref="J585" r:id="rId301" display="mailto:pedroventura22@gmail.com"/>
-    <hyperlink ref="J584" r:id="rId302" display="mailto:anymodes@yahoo.com.mx"/>
-    <hyperlink ref="J583" r:id="rId303" display="mailto:dgallegouriel@gmail.com"/>
-    <hyperlink ref="J582" r:id="rId304" display="mailto:terazalopez.felipe@gmail.com"/>
-    <hyperlink ref="J581" r:id="rId305" display="mailto:liliogaldez@gmail.com"/>
-    <hyperlink ref="J580" r:id="rId306" display="mailto:ruben94es@gmail.com"/>
-    <hyperlink ref="J579" r:id="rId307" display="mailto:patzan100@gmail.com"/>
-    <hyperlink ref="J577" r:id="rId308" display="mailto:gonzalezluxmartín@yahoo.com"/>
-    <hyperlink ref="J576" r:id="rId309" display="mailto:terygoco@gmail.com"/>
-    <hyperlink ref="J574" r:id="rId310" display="mailto:walteravila@gmail.com"/>
-    <hyperlink ref="J573" r:id="rId311" display="mailto:14-20-0027-43@mineduc.edu.gt"/>
-    <hyperlink ref="J572" r:id="rId312" display="mailto:jonyquigiron@yahoo.es"/>
-    <hyperlink ref="J571" r:id="rId313" display="mailto:tamup500@gmail.com"/>
-    <hyperlink ref="J570" r:id="rId314" display="mailto:yaesmigarcia@hotmail.com"/>
-    <hyperlink ref="J569" r:id="rId315" display="mailto:julietaisabel05@gmail.com"/>
-    <hyperlink ref="J568" r:id="rId316" display="mailto:miguelguch@gmail.com"/>
-    <hyperlink ref="J567" r:id="rId317" display="mailto:r_lcordero33@yahoo.com"/>
-    <hyperlink ref="J562" r:id="rId318" display="mailto:tomasmoralsc@yahoo.es"/>
-    <hyperlink ref="J561" r:id="rId319" display="mailto:migdavit@yahoo.es"/>
-    <hyperlink ref="J566" r:id="rId320" display="mailto:paxocoleorm@gmail.com"/>
-    <hyperlink ref="J565" r:id="rId321" display="mailto:choamarceljuan@hotmail.com"/>
-    <hyperlink ref="J564" r:id="rId322" display="mailto:tzanjuyuppat@gmail.com"/>
-    <hyperlink ref="J559" r:id="rId323" display="mailto:gasparvi.12@gmail.com"/>
-    <hyperlink ref="J558" r:id="rId324" display="mailto:juliolopez1602@gmail.com"/>
-    <hyperlink ref="J557" r:id="rId325" display="mailto:anadelmy85@gmail.com"/>
-    <hyperlink ref="J556" r:id="rId326" display="mailto:eltierno.n@yahoo.com"/>
-    <hyperlink ref="J555" r:id="rId327" display="mailto:cdyjaviergarcia@gmail.com"/>
-    <hyperlink ref="J553" r:id="rId328" display="mailto:edilsagarzona@gmail.com"/>
-    <hyperlink ref="J551" r:id="rId329" display="mailto:domingocani5b@hotmail.com"/>
-    <hyperlink ref="J550" r:id="rId330" display="mailto:vero88zapeta@gmail.com"/>
-    <hyperlink ref="J549" r:id="rId331" display="mailto:sebasig1702@gmail.com"/>
-    <hyperlink ref="J548" r:id="rId332" display="mailto:daazalga28@gmail.com"/>
-    <hyperlink ref="J547" r:id="rId333" display="mailto:bventurakuk@hotmail.com"/>
-    <hyperlink ref="J546" r:id="rId334" display="mailto:a_morales734@yahoo.com"/>
-    <hyperlink ref="J223" r:id="rId335" display="mailto:saratecun02@hotmail.com"/>
-    <hyperlink ref="J222" r:id="rId336" display="mailto:vicedia@hotmal.com"/>
-    <hyperlink ref="J230" r:id="rId337" display="mailto:wilyconce@hotmail.com"/>
-    <hyperlink ref="J229" r:id="rId338" display="mailto:emitalopez283@hotmail.com"/>
-    <hyperlink ref="J228" r:id="rId339" display="mailto:abner4aguilar95@gmail.com"/>
-    <hyperlink ref="J234" r:id="rId340" display="mailto:imeldamachic7@hotmail.com"/>
-    <hyperlink ref="J241" r:id="rId341" display="mailto:isaporoj@gmail.com"/>
-    <hyperlink ref="J240" r:id="rId342" display="mailto:arreagacalderon77@gmail.com"/>
-    <hyperlink ref="J248" r:id="rId343" display="mailto:daar1403@gmail.com"/>
-    <hyperlink ref="J247" r:id="rId344" display="mailto:maiklopez_10@hotmail.com"/>
-    <hyperlink ref="J246" r:id="rId345" display="mailto:onelialvarado17@gmail.com"/>
-    <hyperlink ref="J268" r:id="rId346" display="mailto:tetis.ag@hotmail.com"/>
-    <hyperlink ref="J267" r:id="rId347" display="mailto:elfaeo1@gmail.com"/>
-    <hyperlink ref="J264" r:id="rId348" display="mailto:casigomez325@gmail.com"/>
-    <hyperlink ref="J255" r:id="rId349" display="mailto:odaneiris@hotmail.com"/>
-    <hyperlink ref="J254" r:id="rId350" display="mailto:rosmeryelias@gmail.com"/>
-    <hyperlink ref="J253" r:id="rId351" display="mailto:maybellineitzepaguilar0@gmail.com"/>
-    <hyperlink ref="J252" r:id="rId352" display="mailto:almayarmila@gmail.com"/>
-    <hyperlink ref="J243" r:id="rId353" display="mailto:maritsa-reyes28@hotmail.com"/>
-    <hyperlink ref="J239" r:id="rId354" display="mailto:juanhernny017@gmail.com"/>
-    <hyperlink ref="J238" r:id="rId355" display="mailto:elizabeth_olga456@hotmail.com"/>
-    <hyperlink ref="J237" r:id="rId356" display="mailto:vilmaaracelyj@yahoo.es"/>
-    <hyperlink ref="J220" r:id="rId357" display="mailto:heidilepe.1@gmail.com"/>
-    <hyperlink ref="J219" r:id="rId358" display="mailto:rosanaaguilonlucas@gmail.com"/>
-    <hyperlink ref="J216" r:id="rId359" display="mailto:juanhuinil@gmail.com"/>
-    <hyperlink ref="J215" r:id="rId360" display="mailto:tayito9@hotmail.com"/>
-    <hyperlink ref="J214" r:id="rId361" display="mailto:noeramos905@gmail.com"/>
-    <hyperlink ref="J213" r:id="rId362" display="mailto:byronmendez@gmail.com"/>
-    <hyperlink ref="J232" r:id="rId363" display="mailto:Reinaelizabeth@hotmail.com"/>
-    <hyperlink ref="J231" r:id="rId364" display="mailto:allsa@hotmail.es"/>
-    <hyperlink ref="J212" r:id="rId365" display="mailto:diven.ruiz@gmail.com"/>
-    <hyperlink ref="J211" r:id="rId366" display="mailto:ronysalva2015@hotmail.com"/>
-    <hyperlink ref="J210" r:id="rId367" display="mailto:liolimaldonado@gmail.com"/>
-    <hyperlink ref="J209" r:id="rId368" display="mailto:emug82113@hotmail.com"/>
-    <hyperlink ref="J208" r:id="rId369" display="mailto:azaliaddelacruz@gmail.com"/>
-    <hyperlink ref="J207" r:id="rId370" display="mailto:herlindapaxtor@gmail.com"/>
-    <hyperlink ref="J204" r:id="rId371" display="mailto:leslyalvarado07@gmail.com"/>
-    <hyperlink ref="J201" r:id="rId372" display="mailto:Glendyovalle@gmail.com"/>
-    <hyperlink ref="J39" r:id="rId373" display="mailto:orellanajuanjose@yahoo.com"/>
-    <hyperlink ref="J38" r:id="rId374" display="mailto:eorm.lot8defebjm@gmail.com"/>
-    <hyperlink ref="J70" r:id="rId375" display="mailto:luiscoy100@gmail.com"/>
-    <hyperlink ref="J69" r:id="rId376" display="mailto:mirianramosjuarez@gmail.com"/>
-    <hyperlink ref="J68" r:id="rId377" display="mailto:eliasblanco333@gmail.com"/>
-    <hyperlink ref="J66" r:id="rId378" display="mailto:gildargueta64@gmail.com"/>
-    <hyperlink ref="J65" r:id="rId379" display="mailto:escuela.palinchejv@yahoo.com"/>
-    <hyperlink ref="J311" r:id="rId380" display="mailto:rsantizodeleon2005@gmail.com"/>
-    <hyperlink ref="J287" r:id="rId381" display="mailto:anmadueñas@gmail.com"/>
-    <hyperlink ref="J300" r:id="rId382" display="mailto:Jacobopalacios3@hotmail.com"/>
-    <hyperlink ref="J329" r:id="rId383" display="mailto:edymorente@gmail.com"/>
-    <hyperlink ref="J326" r:id="rId384" display="mailto:margiagonzalez5@gmail.com"/>
-    <hyperlink ref="J323" r:id="rId385" display="mailto:chinitaivir@gmail.com"/>
-    <hyperlink ref="J317" r:id="rId386" display="mailto:mariano.guerra@yahoo.es"/>
-    <hyperlink ref="J314" r:id="rId387" display="mailto:hernandezjosesito27@gmail.com"/>
-    <hyperlink ref="J305" r:id="rId388" display="mailto:yviska@hotmail.com"/>
-    <hyperlink ref="J302" r:id="rId389" display="mailto:patychape@live.com"/>
-    <hyperlink ref="J299" r:id="rId390" display="mailto:gfvlderecho1988@hotmail.com"/>
-    <hyperlink ref="J296" r:id="rId391" display="mailto:karlikarli.1012@gmail.com"/>
-    <hyperlink ref="J293" r:id="rId392" display="mailto:rhperez.23@gmail.com"/>
-    <hyperlink ref="J290" r:id="rId393" display="mailto:lupegar1979@gmail.com"/>
-    <hyperlink ref="J284" r:id="rId394" display="mailto:shanyrodriguez1806@gamil.com"/>
-    <hyperlink ref="J281" r:id="rId395" display="mailto:irismagnoliagr@gmail.com"/>
-    <hyperlink ref="J278" r:id="rId396" display="mailto:figueroacarlos1969@gmail.com"/>
-    <hyperlink ref="J328" r:id="rId397" display="mailto:abraham25_87@hotmail.com"/>
-    <hyperlink ref="J325" r:id="rId398" display="mailto:adubaupez@gmail.com"/>
-    <hyperlink ref="J322" r:id="rId399" display="mailto:zl.orozcodeperez@gmail.com"/>
-    <hyperlink ref="J316" r:id="rId400" display="mailto:magdalenamaria4@gmail.com"/>
-    <hyperlink ref="J313" r:id="rId401" display="mailto:rosendobuchpos07@gmail.com"/>
-    <hyperlink ref="J310" r:id="rId402" display="mailto:valechenol@gmail.com"/>
-    <hyperlink ref="J304" r:id="rId403" display="mailto:silvia.noj@hotmail.com"/>
-    <hyperlink ref="J301" r:id="rId404" display="mailto:loremprios@gmail.com"/>
-    <hyperlink ref="J298" r:id="rId405" display="mailto:rido2711@gmail.com"/>
-    <hyperlink ref="J295" r:id="rId406" display="mailto:joregopast@gmail.com"/>
-    <hyperlink ref="J289" r:id="rId407" display="mailto:rrodash@hotmail.com"/>
-    <hyperlink ref="J286" r:id="rId408" display="mailto:johannat649@gmail.com"/>
-    <hyperlink ref="J283" r:id="rId409" display="mailto:eormsanramon@live.com"/>
-    <hyperlink ref="J280" r:id="rId410" display="mailto:fiazeducando@gmail.com"/>
-    <hyperlink ref="J277" r:id="rId411" display="mailto:reginaldo_8_1@hotmail.com"/>
-    <hyperlink ref="J327" r:id="rId412" display="mailto:israelcosigua7@gmail.com"/>
-    <hyperlink ref="J324" r:id="rId413" display="mailto:ardanisito@gmail.com"/>
-    <hyperlink ref="J321" r:id="rId414" display="mailto:estebanmoralesdouglasadolfo@gmail.com"/>
-    <hyperlink ref="J315" r:id="rId415" display="mailto:anibasquetball33@gmail.com"/>
-    <hyperlink ref="J312" r:id="rId416" display="mailto:nurianwan2011@hotmail.com"/>
-    <hyperlink ref="J309" r:id="rId417" display="mailto:irmacontreras@hotmail.com"/>
-    <hyperlink ref="J303" r:id="rId418" display="mailto:bicasiahugo@yahoo.es"/>
-    <hyperlink ref="J297" r:id="rId419" display="mailto:reidera71@yahoo."/>
-    <hyperlink ref="J294" r:id="rId420" display="mailto:rsalquilsolval@gmail.com"/>
-    <hyperlink ref="J291" r:id="rId421" display="mailto:isarodriguez19@hotmail.com"/>
-    <hyperlink ref="J288" r:id="rId422" display="mailto:eormlasoledad@hotmail.com"/>
-    <hyperlink ref="J285" r:id="rId423" display="mailto:audaguzman@gmail.com"/>
-    <hyperlink ref="J282" r:id="rId424" display="mailto:arreolobito609@gmail.com"/>
-    <hyperlink ref="J279" r:id="rId425" display="panhornamineduc@gmail.com"/>
-    <hyperlink ref="J276" r:id="rId426" display="mailto:brendagamez@hotmail.com"/>
-    <hyperlink ref="J273" r:id="rId427" display="mailto:sandra50lopez@gmail.com"/>
-    <hyperlink ref="J272" r:id="rId428" display="mailto:martineztorrespaula@hotmail.com"/>
-    <hyperlink ref="J271" r:id="rId429" display="mailto:marthalid58@hotmail.com"/>
-    <hyperlink ref="J270" r:id="rId430" display="mailto:lau_geral@yahoo.com"/>
-    <hyperlink ref="J679" r:id="rId431" display="mailto:mayky.12d@gmail.com"/>
-    <hyperlink ref="J647" r:id="rId432" display="mailto:darwinbuenafe105@hotmail.com"/>
-    <hyperlink ref="J646" r:id="rId433" display="mailto:sekoleal@gmail.com"/>
-    <hyperlink ref="J645" r:id="rId434" display="mailto:panhornamineduc@gmail.com"/>
-    <hyperlink ref="J674" r:id="rId435" display="mailto:xiomaracaal82@outlook.com"/>
-    <hyperlink ref="J672" r:id="rId436" display="mailto:mides7@hotmail.com"/>
-    <hyperlink ref="J650" r:id="rId437" display="mailto:marcobotzoc5@gmail.com"/>
-    <hyperlink ref="J649" r:id="rId438" display="mailto:listerg@gmail.com"/>
-    <hyperlink ref="J648" r:id="rId439" display="mailto:hlemus52@gmail.com"/>
-    <hyperlink ref="J678" r:id="rId440" display="mailto:mayky.12d@gmail.com"/>
-    <hyperlink ref="J609" r:id="rId441" display="mailto:saraconor73@gmail.com"/>
-    <hyperlink ref="J631" r:id="rId442" display="mailto:janetsanabria@hotmail.com"/>
-    <hyperlink ref="J630" r:id="rId443" display="mailto:joelestuardocaplopez@gmail.com"/>
-    <hyperlink ref="J628" r:id="rId444" display="mailto:mariaorrego77@yahoo.com"/>
-    <hyperlink ref="J627" r:id="rId445" display="mailto:maagt22@hotmail.com"/>
-    <hyperlink ref="J625" r:id="rId446" display="mailto:celegraj@gmail.com"/>
-    <hyperlink ref="J624" r:id="rId447" display="mailto:lilian112010garcia@gmail.com"/>
-    <hyperlink ref="J623" r:id="rId448" display="mailto:ingridcarlinazulet@hotmail.com"/>
-    <hyperlink ref="J622" r:id="rId449" display="mailto:rammilian@hotmail.com"/>
-    <hyperlink ref="J621" r:id="rId450" display="mailto:nuriabetzaida@gmail.com"/>
-    <hyperlink ref="J620" r:id="rId451" display="mailto:hernandezoema@gmail.com"/>
-    <hyperlink ref="J619" r:id="rId452" display="mailto:rudygarciapaz@gmail.com"/>
-    <hyperlink ref="J615" r:id="rId453" display="mailto:teresa315.mai@gmail.com"/>
-    <hyperlink ref="J614" r:id="rId454" display="mailto:rony.pocop@yahoo.es"/>
-    <hyperlink ref="J613" r:id="rId455" display="mailto:wcarturo9@gmail.com"/>
+    <hyperlink ref="J64" r:id="rId9" display="mailto:escuelasantacecilia@hotmail.es"/>
+    <hyperlink ref="J63" r:id="rId10" display="mailto:grindyvillalobos83@gmail.com"/>
+    <hyperlink ref="J62" r:id="rId11" display="mailto:titiachiqui@hotmail.com"/>
+    <hyperlink ref="J71" r:id="rId12" display="mailto:melvingr10@gmail.com"/>
+    <hyperlink ref="J308" r:id="rId13" display="mailto:vicmayem1@hotmail.es"/>
+    <hyperlink ref="J275" r:id="rId14" display="mailto:ferdydef@gmail.com"/>
+    <hyperlink ref="J14" r:id="rId15"/>
+    <hyperlink ref="J11" r:id="rId16"/>
+    <hyperlink ref="J274" r:id="rId17" display="mailto:evelinchiyut@gmail.com"/>
+    <hyperlink ref="J319" r:id="rId18" display="mailto:arnulfoefrain@gmail.com"/>
+    <hyperlink ref="J318" r:id="rId19" display="mailto:josealfredo_villagran@hotmail.com"/>
+    <hyperlink ref="J182" r:id="rId20" display="mailto:anaveronicagomezgarcia@hotmail.com"/>
+    <hyperlink ref="J13" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="J10" r:id="rId23"/>
+    <hyperlink ref="J15" r:id="rId24"/>
+    <hyperlink ref="J306" r:id="rId25" display="mailto:amparogodr1@hotmail.com"/>
+    <hyperlink ref="J244" r:id="rId26" display="mailto:ajtijedso@hotmail.com"/>
+    <hyperlink ref="J163" r:id="rId27" display="mailto:antocarriixt@gmail.com"/>
+    <hyperlink ref="J612" r:id="rId28" display="mailto:soloman_777@hotmail.com"/>
+    <hyperlink ref="J629" r:id="rId29" display="mailto:nelylorenaer@gmail.com"/>
+    <hyperlink ref="J626" r:id="rId30" display="mailto:emiliocruz3@hotmail.com"/>
+    <hyperlink ref="J618" r:id="rId31" display="mailto:ojlfamilia@gmail.com"/>
+    <hyperlink ref="J616" r:id="rId32" display="mailto:eladiorabinal@hotmail.com"/>
+    <hyperlink ref="J428" r:id="rId33" display="mailto:raymundo_navarro@yahoo.es"/>
+    <hyperlink ref="J427" r:id="rId34" display="mailto:demetrio.martinchilel@yahoo.es"/>
+    <hyperlink ref="J426" r:id="rId35" display="mailto:oraciolopez@hotmail.es"/>
+    <hyperlink ref="J410" r:id="rId36" display="mailto:eormlaindepedencia@gmail.com"/>
+    <hyperlink ref="J409" r:id="rId37" display="mailto:soniaguille16@hotmail.com"/>
+    <hyperlink ref="J408" r:id="rId38" display="mailto:blanqui.princess@hotmail.com"/>
+    <hyperlink ref="J404" r:id="rId39" display="mailto:rudymaldonado89@gmail.com"/>
+    <hyperlink ref="J403" r:id="rId40" display="mailto:marytieera@hotmail.com"/>
+    <hyperlink ref="J386" r:id="rId41" display="mailto:netochij@hotmail.com"/>
+    <hyperlink ref="J379" r:id="rId42" display="mailto:12-07-3616-43@mineduc.edu.gt"/>
+    <hyperlink ref="J371" r:id="rId43" display="mailto:zacariastomasapo5030@gmail.com"/>
+    <hyperlink ref="J362" r:id="rId44" display="mailto:sacherlisa@gmail.com"/>
+    <hyperlink ref="J185" r:id="rId45" display="mailto:sandra512garcia@gmail.com"/>
+    <hyperlink ref="J355" r:id="rId46" display="mailto:negritoescorpion@gmail.com"/>
+    <hyperlink ref="J352" r:id="rId47" display="mailto:ccasianodunois@gmail.com"/>
+    <hyperlink ref="J350" r:id="rId48" display="mailto:emyalfaro122@hotmail.com"/>
+    <hyperlink ref="J348" r:id="rId49" display="mailto:estradarikdababahykua329@gmail.com"/>
+    <hyperlink ref="J345" r:id="rId50" display="mailto:marcoliberal@hotmail.com"/>
+    <hyperlink ref="J343" r:id="rId51" display="mailto:lester91285@hotmail.com"/>
+    <hyperlink ref="J340" r:id="rId52" display="mailto:jlcuyuch21@hotmail.com"/>
+    <hyperlink ref="J339" r:id="rId53" display="mailto:gabervillatoro@outlook.es"/>
+    <hyperlink ref="J337" r:id="rId54" display="mailto:mpdvl@hotmail.com"/>
+    <hyperlink ref="J336" r:id="rId55" display="mailto:paulabatres1986@gmail.com"/>
+    <hyperlink ref="J242" r:id="rId56" display="mailto:amindadiazdeleon@gmail.com"/>
+    <hyperlink ref="J233" r:id="rId57" display="mailto:vifranco88@gmail.com"/>
+    <hyperlink ref="J202" r:id="rId58" display="mailto:blancalidia@gmail.com"/>
+    <hyperlink ref="J181" r:id="rId59" display="mailto:santizolucrecia21@gmail.com"/>
+    <hyperlink ref="J194" r:id="rId60" display="mailto:angelinapu@hotmail.com"/>
+    <hyperlink ref="J170" r:id="rId61" display="mailto:mari.ele28@hotmail.com"/>
+    <hyperlink ref="J157" r:id="rId62" display="mailto:lilaazul90@live.com"/>
+    <hyperlink ref="J155" r:id="rId63" display="mailto:selvinpacheco82@yahoo.com"/>
+    <hyperlink ref="J148" r:id="rId64" display="mailto:constugale@yahoo.com"/>
+    <hyperlink ref="J125" r:id="rId65" display="mailto:oliviachavajay@gmail.com"/>
+    <hyperlink ref="J116" r:id="rId66" display="mailto:anatorrojas459@gmail.com"/>
+    <hyperlink ref="J104" r:id="rId67" display="mailto:magdalenamontenegro2016@gmail.com"/>
+    <hyperlink ref="J82" r:id="rId68" display="mailto:cfristzun1990@gmail.com"/>
+    <hyperlink ref="J81" r:id="rId69" display="mailto:verdegonsa@gmail.com"/>
+    <hyperlink ref="J80" r:id="rId70" display="mailto:airmaaracely@gmail.com"/>
+    <hyperlink ref="J662" r:id="rId71" display="mailto:celsotox@yahoo.com"/>
+    <hyperlink ref="J661" r:id="rId72" display="mailto:manuelsi2018@gmail.com"/>
+    <hyperlink ref="J660" r:id="rId73" display="mailto:gabicucy@yahoo.com"/>
+    <hyperlink ref="J658" r:id="rId74" display="mailto:juandedioschocflores@gmail.com"/>
+    <hyperlink ref="J657" r:id="rId75" display="mailto:eormaldeatzunutz@gmail.com"/>
+    <hyperlink ref="J641" r:id="rId76" display="mailto:davidcalmoran@gmail.com"/>
+    <hyperlink ref="J640" r:id="rId77" display="mailto:tello_santi@hotmail.com"/>
+    <hyperlink ref="J639" r:id="rId78" display="mailto:julioamalem@hotmail.com"/>
+    <hyperlink ref="J673" r:id="rId79" display="mailto:kdelvalle617@gmail.com"/>
+    <hyperlink ref="J590" r:id="rId80" display="mailto:lopezsheni83@gmail.com"/>
+    <hyperlink ref="J588" r:id="rId81" display="mailto:eormsajracanchituj@gmail.com"/>
+    <hyperlink ref="J578" r:id="rId82" display="mailto:pedroramosrodriguez12@gmail.com"/>
+    <hyperlink ref="J560" r:id="rId83" display="mailto:rodolfochicosorio@gmail.com"/>
+    <hyperlink ref="J605" r:id="rId84" display="mailto:joseortizcos01@gmail.com"/>
+    <hyperlink ref="J604" r:id="rId85" display="mailto:mchocojsocop@yahoo.es"/>
+    <hyperlink ref="J450" r:id="rId86" display="mailto:filvega@hotmail.com"/>
+    <hyperlink ref="J611" r:id="rId87" display="mailto:stisanta@gmail.com"/>
+    <hyperlink ref="J610" r:id="rId88" display="mailto:oscarjo2012@hotmail.com"/>
+    <hyperlink ref="J261" r:id="rId89" display="mailto:dial1928@hotmail.com"/>
+    <hyperlink ref="J515" r:id="rId90" display="mailto:angelicacano5@gmail.com"/>
+    <hyperlink ref="J519" r:id="rId91" display="mailto:rosaarmas75@gmail.com"/>
+    <hyperlink ref="J88" r:id="rId92" display="mailto:dilisagastume@hotmail.com"/>
+    <hyperlink ref="J87" r:id="rId93" display="mailto:duvischavez@gmail.com"/>
+    <hyperlink ref="J193" r:id="rId94" display="mailto:ednerzacarias@gmail.com"/>
+    <hyperlink ref="J180" r:id="rId95" display="mailto:Agusjua2003@yahoo.es"/>
+    <hyperlink ref="J192" r:id="rId96" display="mailto:hjaneth12@hotmail.com"/>
+    <hyperlink ref="J514" r:id="rId97" display="mailto:eormcb2016@gmail.com"/>
+    <hyperlink ref="J513" r:id="rId98" display="mailto:eghcpeta@gmail.com"/>
+    <hyperlink ref="J115" r:id="rId99" display="mailto:dinorita@hotmail.com"/>
+    <hyperlink ref="J114" r:id="rId100" display="mailto:contrerasgarcias703@gmail.com"/>
+    <hyperlink ref="J107" r:id="rId101" display="mailto:leoneldavila217@gmail.com"/>
+    <hyperlink ref="J106" r:id="rId102" display="mailto:hernandezgomez@live.com"/>
+    <hyperlink ref="J105" r:id="rId103" display="mailto:ivasquezyelmo@gmail.com"/>
+    <hyperlink ref="J99" r:id="rId104" display="mailto:paolorobertoc@gmail.com"/>
+    <hyperlink ref="J100" r:id="rId105" display="mailto:raquelitagomez78@hotmail.com"/>
+    <hyperlink ref="J101" r:id="rId106" display="mailto:carmeloalvarado74@hotmail.com"/>
+    <hyperlink ref="J86" r:id="rId107" display="mailto:eoummavitolejv@hotmail.com"/>
+    <hyperlink ref="J85" r:id="rId108" display="mailto:wilianjimenez98@gmail.com"/>
+    <hyperlink ref="J84" r:id="rId109" display="mailto:jhsadolfo@gmail.com"/>
+    <hyperlink ref="J83" r:id="rId110" display="mailto:chonitacortez@gmail.com"/>
+    <hyperlink ref="J79" r:id="rId111" display="mailto:melitaml@hotmail.com"/>
+    <hyperlink ref="J78" r:id="rId112" display="mailto:icahuec204@gmail.com"/>
+    <hyperlink ref="J77" r:id="rId113" display="mailto:flor.103@hotmail.com"/>
+    <hyperlink ref="J98" r:id="rId114" display="mailto:valenzuelamelgar@hotmail.com"/>
+    <hyperlink ref="J97" r:id="rId115" display="mailto:angelicalopez19799@gmail.com"/>
+    <hyperlink ref="J103" r:id="rId116" display="mailto:marlonidesar2017@gmail.com"/>
+    <hyperlink ref="J96" r:id="rId117" display="mailto:proftuliogalicia@hotmail.com"/>
+    <hyperlink ref="J102" r:id="rId118" display="mailto:muni_ixhuatan@hotmail.com"/>
+    <hyperlink ref="J110" r:id="rId119" display="mailto:mcecy.rg@gmail.com"/>
+    <hyperlink ref="J109" r:id="rId120" display="mailto:emarlencoradoh83@gmail.com"/>
+    <hyperlink ref="J332" r:id="rId121" display="mailto:ingridjoperez@hotmail.com"/>
+    <hyperlink ref="J331" r:id="rId122" display="mailto:willianchavez555@gmail.com"/>
+    <hyperlink ref="J330" r:id="rId123" display="mailto:eormlineab2sectorsiscurvadelar@gmail.com"/>
+    <hyperlink ref="J197" r:id="rId124" display="mailto:sontaydilma@gmail.com"/>
+    <hyperlink ref="J196" r:id="rId125" display="mailto:franciscoeorma@gmail.com"/>
+    <hyperlink ref="J195" r:id="rId126" display="mailto:jaimecch@hotmail.es"/>
+    <hyperlink ref="J191" r:id="rId127" display="mailto:antoniott_65@hotmail.com"/>
+    <hyperlink ref="J190" r:id="rId128" display="mailto:ingrisdamaris@gmail.com"/>
+    <hyperlink ref="J189" r:id="rId129" display="mailto:francisco_lux.c@hotmail.com"/>
+    <hyperlink ref="J188" r:id="rId130" display="mailto:paxmarc@gmail.com"/>
+    <hyperlink ref="J187" r:id="rId131" display="mailto:celsontay@gmail.coom"/>
+    <hyperlink ref="J186" r:id="rId132" display="mailto:ixmayj@gmail.com"/>
+    <hyperlink ref="J184" r:id="rId133" display="mailto:gabino10morales@gmail.com"/>
+    <hyperlink ref="J183" r:id="rId134" display="mailto:pacochepe25@gmail.com"/>
+    <hyperlink ref="J179" r:id="rId135" display="mailto:maryter67@yahoo.com"/>
+    <hyperlink ref="J178" r:id="rId136" display="mailto:ola2386@hotmail.com"/>
+    <hyperlink ref="J177" r:id="rId137" display="mailto:astrid_mq2387@hotmail.com"/>
+    <hyperlink ref="J176" r:id="rId138" display="mailto:escuelamarianogalvez@gmail.com"/>
+    <hyperlink ref="J175" r:id="rId139" display="mailto:isabeltoto@yahoo.es"/>
+    <hyperlink ref="J174" r:id="rId140" display="mailto:veliaalejandral@yahoo.com"/>
+    <hyperlink ref="J395" r:id="rId141" display="mailto:ericmiranda9@hotmail.com"/>
+    <hyperlink ref="J394" r:id="rId142" display="mailto:ana_de_trejo@hotmail.com"/>
+    <hyperlink ref="J393" r:id="rId143" display="mailto:juancarlosventuragonzales@gmail.com"/>
+    <hyperlink ref="J134" r:id="rId144" display="mailto:juventinotimoteoot@gmail.com"/>
+    <hyperlink ref="J167" r:id="rId145" display="mailto:nohecotuc@hotmail.com"/>
+    <hyperlink ref="J166" r:id="rId146" display="mailto:efraincito1@gmail.com"/>
+    <hyperlink ref="J165" r:id="rId147" display="mailto:irmavasquez77@yahoo.es"/>
+    <hyperlink ref="J169" r:id="rId148" display="mailto:yojcompedro@yahoo.es"/>
+    <hyperlink ref="J173" r:id="rId149" display="mailto:dolocq@yahoo.es"/>
+    <hyperlink ref="J172" r:id="rId150" display="mailto:dcotzalbaran@gmail.com"/>
+    <hyperlink ref="J171" r:id="rId151" display="mailto:joemessi15@gmail.com"/>
+    <hyperlink ref="J168" r:id="rId152" display="mailto:ibechava4@gmail.com"/>
+    <hyperlink ref="J136" r:id="rId153" display="mailto:marinayac45@gmail.com"/>
+    <hyperlink ref="J135" r:id="rId154" display="mailto:asalquil10@gmail.com"/>
+    <hyperlink ref="J133" r:id="rId155" display="mailto:justoshomtahay@gmail.com"/>
+    <hyperlink ref="J132" r:id="rId156" display="mailto:angeltepaz17@hotmail.com"/>
+    <hyperlink ref="J131" r:id="rId157" display="mailto:tonasac@gmail.com"/>
+    <hyperlink ref="J130" r:id="rId158" display="mailto:luis.tax@hotmail.com"/>
+    <hyperlink ref="J129" r:id="rId159" display="mailto:pachipac0146@gmail.com"/>
+    <hyperlink ref="J128" r:id="rId160" display="mailto:luciaarelixumyacq@gmail.com"/>
+    <hyperlink ref="J127" r:id="rId161" display="mailto:floritesh@ghotmail.com"/>
+    <hyperlink ref="J126" r:id="rId162" display="mailto:leonelvasx7@gmail.com"/>
+    <hyperlink ref="J124" r:id="rId163" display="mailto:kndsosa@gmail.com"/>
+    <hyperlink ref="J123" r:id="rId164" display="mailto:lgladizhernandez@gmail.com"/>
+    <hyperlink ref="J122" r:id="rId165" display="mailto:cuyenseca@gmail.com"/>
+    <hyperlink ref="J121" r:id="rId166" display="mailto:peter10.8.73@gmail.com"/>
+    <hyperlink ref="J120" r:id="rId167" display="mailto:roqueletel@gmail.com"/>
+    <hyperlink ref="J140" r:id="rId168" display="mailto:carlos_chiyal@hotmail.com"/>
+    <hyperlink ref="J139" r:id="rId169" display="mailto:mchiroychumil@gmail.com"/>
+    <hyperlink ref="J138" r:id="rId170" display="mailto:juliade3375@yahoo.es"/>
+    <hyperlink ref="J119" r:id="rId171" display="mailto:imemenchu20@gmail.com"/>
+    <hyperlink ref="J118" r:id="rId172" display="mailto:avebocel@hotmail.com"/>
+    <hyperlink ref="J117" r:id="rId173" display="mailto:jalfonso7777@outlook.com"/>
+    <hyperlink ref="J161" r:id="rId174" display="mailto:cucratzam@gmail.com"/>
+    <hyperlink ref="J160" r:id="rId175" display="mailto:marcosporon@gmail.com"/>
+    <hyperlink ref="J159" r:id="rId176" display="mailto:cpcarmelina257@gmail.com"/>
+    <hyperlink ref="J162" r:id="rId177" display="mailto:tinurifamen@gmail.com"/>
+    <hyperlink ref="J147" r:id="rId178" display="mailto:rodrigoajtzip@yahoo.com"/>
+    <hyperlink ref="J154" r:id="rId179" display="mailto:asulugui@yahoo.com"/>
+    <hyperlink ref="J153" r:id="rId180" display="mailto:jmsnahe@gmail.com"/>
+    <hyperlink ref="J152" r:id="rId181" display="mailto:vicenteperez1962@yahoo.com"/>
+    <hyperlink ref="J151" r:id="rId182" display="mailto:soorey275@hotmail.es"/>
+    <hyperlink ref="J150" r:id="rId183" display="mailto:escuelagregorio@gmail.com"/>
+    <hyperlink ref="J145" r:id="rId184" display="mailto:caminitomary@htomailc.om"/>
+    <hyperlink ref="J144" r:id="rId185" display="mailto:saletis@hotmail.com"/>
+    <hyperlink ref="J156" r:id="rId186" display="mailto:mavhm@yahoo.com"/>
+    <hyperlink ref="J143" r:id="rId187" display="mailto:parabaljuanmarcelino92@gmail.com"/>
+    <hyperlink ref="J142" r:id="rId188" display="mailto:obed.rosales@profesor.usac.edu.gt"/>
+    <hyperlink ref="J141" r:id="rId189" display="mailto:abbymatzar1@gmail.com"/>
+    <hyperlink ref="J449" r:id="rId190" display="mailto:yuris74@hotmail.com"/>
+    <hyperlink ref="J447" r:id="rId191" display="mailto:nuvianinethbecerra@gmail.com"/>
+    <hyperlink ref="J446" r:id="rId192" display="mailto:paulaescobar203@gmail.com"/>
+    <hyperlink ref="J445" r:id="rId193" display="mailto:miltonvelasquezmm@gmail.com"/>
+    <hyperlink ref="J444" r:id="rId194" display="mailto:waltervelasquezlopez@gmail.com"/>
+    <hyperlink ref="J443" r:id="rId195" display="mailto:alberta.barrios@outlook.com"/>
+    <hyperlink ref="J442" r:id="rId196" display="mailto:donald.leon@gmail.com"/>
+    <hyperlink ref="J441" r:id="rId197" display="mailto:bautistaalfredo79@gmail.com"/>
+    <hyperlink ref="J440" r:id="rId198" display="mailto:57296296yu@gmail.com"/>
+    <hyperlink ref="J439" r:id="rId199" display="mailto:bohanergeradeleon@gmail.com"/>
+    <hyperlink ref="J438" r:id="rId200" display="mailto:lopézruben1227@gmail.com"/>
+    <hyperlink ref="J437" r:id="rId201" display="mailto:ambrocio.jacinto@gmail.com"/>
+    <hyperlink ref="J436" r:id="rId202" display="mailto:mauroamba@gmail.com"/>
+    <hyperlink ref="J435" r:id="rId203" display="mailto:fjavier.lpez60@gmail.com"/>
+    <hyperlink ref="J434" r:id="rId204" display="mailto:spgodinez0970@gmail.com"/>
+    <hyperlink ref="J433" r:id="rId205" display="mailto:manuelp0968@gmail.com"/>
+    <hyperlink ref="J432" r:id="rId206" display="mailto:efrainvasques201@gmail.com"/>
+    <hyperlink ref="J431" r:id="rId207" display="mailto:mirnalicia20@gmail.com"/>
+    <hyperlink ref="J430" r:id="rId208" display="mailto:carinborrayes12@gmail.com"/>
+    <hyperlink ref="J429" r:id="rId209" display="mailto:albinelderdeleon@gmail.com"/>
+    <hyperlink ref="J425" r:id="rId210" display="mailto:mirnalisd@gmail.com"/>
+    <hyperlink ref="J424" r:id="rId211" display="mailto:loren-ninethzlz@hotmail.com"/>
+    <hyperlink ref="J423" r:id="rId212" display="mailto:ronaldojlopez@hotmail.com"/>
+    <hyperlink ref="J422" r:id="rId213" display="mailto:12-21-0857-43@mineduc.edu.gt"/>
+    <hyperlink ref="J421" r:id="rId214" display="mailto:1221-0860-43@mineduc.edu.gt"/>
+    <hyperlink ref="J420" r:id="rId215" display="mailto:12-21-0855-43@mineduc.edu.gt"/>
+    <hyperlink ref="J419" r:id="rId216" display="mailto:gusygt2014@gmail.com"/>
+    <hyperlink ref="J418" r:id="rId217" display="mailto:herberdionel1220@gmail.com"/>
+    <hyperlink ref="J417" r:id="rId218" display="mailto:hericriba@hotmail.com"/>
+    <hyperlink ref="J416" r:id="rId219" display="mailto:miangelitoram@hotmail.com"/>
+    <hyperlink ref="J415" r:id="rId220" display="mailto:mariquitadeleon3@hotmail.com"/>
+    <hyperlink ref="J414" r:id="rId221" display="mailto:esvinerick97@gmail.com"/>
+    <hyperlink ref="J413" r:id="rId222" display="mailto:adolfonatareno@hotmail.com"/>
+    <hyperlink ref="J412" r:id="rId223" display="mailto:kryscielito45@gmail.com"/>
+    <hyperlink ref="J411" r:id="rId224" display="mailto:joaquinm18_@hotmail.com"/>
+    <hyperlink ref="J407" r:id="rId225" display="mailto:yulionelopez@gmail.com"/>
+    <hyperlink ref="J405" r:id="rId226" display="mailto:rubibarrios@gmail.com"/>
+    <hyperlink ref="J402" r:id="rId227" display="mailto:victormanuelramirez@gmail.com"/>
+    <hyperlink ref="J400" r:id="rId228" display="mailto:hernanalvarezlopez@gmail.com"/>
+    <hyperlink ref="J399" r:id="rId229" display="mailto:12-14-0641-43@mineduc.edu.gt"/>
+    <hyperlink ref="J375" r:id="rId230" display="mailto:adoro055@gmail.com"/>
+    <hyperlink ref="J376" r:id="rId231" display="mailto:armandomacariodeleon@gmail.com"/>
+    <hyperlink ref="J377" r:id="rId232" display="mailto:walterjuanmdl@gmail.com"/>
+    <hyperlink ref="J378" r:id="rId233" display="mailto:juarezramires175@gmail.com"/>
+    <hyperlink ref="J381" r:id="rId234" display="mailto:sanblamev1@gmail.com"/>
+    <hyperlink ref="J382" r:id="rId235" display="mailto:nicojereortiz@gmail.com"/>
+    <hyperlink ref="J383" r:id="rId236" display="mailto:lobitorequena2015@gmail.com"/>
+    <hyperlink ref="J384" r:id="rId237" display="mailto:zoilavelasquezfuentes@gmail.com"/>
+    <hyperlink ref="J385" r:id="rId238" display="mailto:evaristovaliente68@gmail.com"/>
+    <hyperlink ref="J387" r:id="rId239" display="mailto:marlenylopez1976@gmail.com"/>
+    <hyperlink ref="J388" r:id="rId240" display="mailto:obyadimf@hotmail.com"/>
+    <hyperlink ref="J389" r:id="rId241" display="mailto:urbadomo@hotmail.com"/>
+    <hyperlink ref="J374" r:id="rId242" display="mailto:fbamacaperez@gmail.com"/>
+    <hyperlink ref="J373" r:id="rId243" display="mailto:hbksay@gmail.com"/>
+    <hyperlink ref="J372" r:id="rId244" display="mailto:helenmar3@gmail.com"/>
+    <hyperlink ref="J370" r:id="rId245" display="mailto:josuerj@gmail.com"/>
+    <hyperlink ref="J369" r:id="rId246" display="mailto:sixtomirandasalvador@yahoo.es"/>
+    <hyperlink ref="J368" r:id="rId247" display="mailto:juliogonzalezramirez@yahoo.es"/>
+    <hyperlink ref="J367" r:id="rId248" display="mailto:taracenab@hotmail.com"/>
+    <hyperlink ref="J366" r:id="rId249" display="mailto:ervin.otto@hotmail.es"/>
+    <hyperlink ref="J365" r:id="rId250" display="mailto:fredygomez523@hotmail.com"/>
+    <hyperlink ref="J364" r:id="rId251" display="mailto:memedony2@hotmail.com"/>
+    <hyperlink ref="J363" r:id="rId252" display="mailto:rpaz@mineduc.edu.gt"/>
+    <hyperlink ref="J361" r:id="rId253" display="mailto:joseestuardo12@hotmail.com"/>
+    <hyperlink ref="J360" r:id="rId254" display="mailto:liselyjuarez@gmail.com"/>
+    <hyperlink ref="J335" r:id="rId255" display="mailto:claudia19723246@hotmail.com"/>
+    <hyperlink ref="J359" r:id="rId256" display="mailto:carolina8pere8@gmail.com"/>
+    <hyperlink ref="J358" r:id="rId257" display="mailto:davidhernandezdia1982@gmail.com"/>
+    <hyperlink ref="J354" r:id="rId258" display="mailto:odeleonruiz@gmail.com"/>
+    <hyperlink ref="J351" r:id="rId259" display="mailto:marvineduar68@yahoo.com"/>
+    <hyperlink ref="J347" r:id="rId260" display="mailto:waldemar6266@gmail.com"/>
+    <hyperlink ref="J346" r:id="rId261" display="mailto:catalinasiquina@yahoo.com"/>
+    <hyperlink ref="J344" r:id="rId262" display="mailto:monicabeatrizreyesmartinez@gmail.com"/>
+    <hyperlink ref="J342" r:id="rId263" display="mailto:patriciavelazquez147@gmail.com"/>
+    <hyperlink ref="J341" r:id="rId264" display="mailto:aangelafernandez2012@gmail.com"/>
+    <hyperlink ref="J334" r:id="rId265" display="mailto:madlcu@hotmail.com"/>
+    <hyperlink ref="J333" r:id="rId266" display="mailto:luis.castro-conejo@hotmail.com"/>
+    <hyperlink ref="J575" r:id="rId267" display="mailto:adcamaja2@gmail.com"/>
+    <hyperlink ref="J608" r:id="rId268" display="mailto:mr0914231@gmail.com"/>
+    <hyperlink ref="J607" r:id="rId269" display="mailto:14-21-0764-43@mineduc.edu.gt"/>
+    <hyperlink ref="J606" r:id="rId270" display="mailto:14-21-0005-43@mineduc.edu.gt"/>
+    <hyperlink ref="J603" r:id="rId271" display="mailto:rafaelgaspar64@gmail.com"/>
+    <hyperlink ref="J602" r:id="rId272" display="mailto:hugovecino05@gmail.com"/>
+    <hyperlink ref="J601" r:id="rId273" display="mailto:eliascalcalel@hotmail.com"/>
+    <hyperlink ref="J600" r:id="rId274" display="mailto:kyessita@gmail.com"/>
+    <hyperlink ref="J599" r:id="rId275" display="mailto:juanquinilla1969@gmail.com"/>
+    <hyperlink ref="J598" r:id="rId276" display="mailto:ciprianjacobo4566@gmail.com"/>
+    <hyperlink ref="J597" r:id="rId277" display="mailto:yrolfcruz11@hotmail.com"/>
+    <hyperlink ref="J596" r:id="rId278" display="mailto:tiagosolis85@gmail.com"/>
+    <hyperlink ref="J595" r:id="rId279" display="mailto:adolfo23salazar@hotmail.com"/>
+    <hyperlink ref="J594" r:id="rId280" display="mailto:jcale2016@gmail.com"/>
+    <hyperlink ref="J593" r:id="rId281" display="mailto:pajaritolancerio@gmail.com"/>
+    <hyperlink ref="J591" r:id="rId282" display="mailto:marytercero2015@gmail.com"/>
+    <hyperlink ref="J587" r:id="rId283" display="mailto:reynamota.08@gmail.com"/>
+    <hyperlink ref="J586" r:id="rId284" display="mailto:pchachsaquic@hotmail.es"/>
+    <hyperlink ref="J585" r:id="rId285" display="mailto:pedroventura22@gmail.com"/>
+    <hyperlink ref="J584" r:id="rId286" display="mailto:anymodes@yahoo.com.mx"/>
+    <hyperlink ref="J583" r:id="rId287" display="mailto:dgallegouriel@gmail.com"/>
+    <hyperlink ref="J582" r:id="rId288" display="mailto:terazalopez.felipe@gmail.com"/>
+    <hyperlink ref="J581" r:id="rId289" display="mailto:liliogaldez@gmail.com"/>
+    <hyperlink ref="J580" r:id="rId290" display="mailto:ruben94es@gmail.com"/>
+    <hyperlink ref="J579" r:id="rId291" display="mailto:patzan100@gmail.com"/>
+    <hyperlink ref="J577" r:id="rId292" display="mailto:gonzalezluxmartín@yahoo.com"/>
+    <hyperlink ref="J576" r:id="rId293" display="mailto:terygoco@gmail.com"/>
+    <hyperlink ref="J574" r:id="rId294" display="mailto:walteravila@gmail.com"/>
+    <hyperlink ref="J573" r:id="rId295" display="mailto:14-20-0027-43@mineduc.edu.gt"/>
+    <hyperlink ref="J572" r:id="rId296" display="mailto:jonyquigiron@yahoo.es"/>
+    <hyperlink ref="J571" r:id="rId297" display="mailto:tamup500@gmail.com"/>
+    <hyperlink ref="J570" r:id="rId298" display="mailto:yaesmigarcia@hotmail.com"/>
+    <hyperlink ref="J569" r:id="rId299" display="mailto:julietaisabel05@gmail.com"/>
+    <hyperlink ref="J568" r:id="rId300" display="mailto:miguelguch@gmail.com"/>
+    <hyperlink ref="J567" r:id="rId301" display="mailto:r_lcordero33@yahoo.com"/>
+    <hyperlink ref="J562" r:id="rId302" display="mailto:tomasmoralsc@yahoo.es"/>
+    <hyperlink ref="J561" r:id="rId303" display="mailto:migdavit@yahoo.es"/>
+    <hyperlink ref="J566" r:id="rId304" display="mailto:paxocoleorm@gmail.com"/>
+    <hyperlink ref="J565" r:id="rId305" display="mailto:choamarceljuan@hotmail.com"/>
+    <hyperlink ref="J564" r:id="rId306" display="mailto:tzanjuyuppat@gmail.com"/>
+    <hyperlink ref="J559" r:id="rId307" display="mailto:gasparvi.12@gmail.com"/>
+    <hyperlink ref="J558" r:id="rId308" display="mailto:juliolopez1602@gmail.com"/>
+    <hyperlink ref="J557" r:id="rId309" display="mailto:anadelmy85@gmail.com"/>
+    <hyperlink ref="J556" r:id="rId310" display="mailto:eltierno.n@yahoo.com"/>
+    <hyperlink ref="J555" r:id="rId311" display="mailto:cdyjaviergarcia@gmail.com"/>
+    <hyperlink ref="J553" r:id="rId312" display="mailto:edilsagarzona@gmail.com"/>
+    <hyperlink ref="J551" r:id="rId313" display="mailto:domingocani5b@hotmail.com"/>
+    <hyperlink ref="J550" r:id="rId314" display="mailto:vero88zapeta@gmail.com"/>
+    <hyperlink ref="J549" r:id="rId315" display="mailto:sebasig1702@gmail.com"/>
+    <hyperlink ref="J548" r:id="rId316" display="mailto:daazalga28@gmail.com"/>
+    <hyperlink ref="J547" r:id="rId317" display="mailto:bventurakuk@hotmail.com"/>
+    <hyperlink ref="J546" r:id="rId318" display="mailto:a_morales734@yahoo.com"/>
+    <hyperlink ref="J223" r:id="rId319" display="mailto:saratecun02@hotmail.com"/>
+    <hyperlink ref="J222" r:id="rId320" display="mailto:vicedia@hotmal.com"/>
+    <hyperlink ref="J230" r:id="rId321" display="mailto:wilyconce@hotmail.com"/>
+    <hyperlink ref="J229" r:id="rId322" display="mailto:emitalopez283@hotmail.com"/>
+    <hyperlink ref="J228" r:id="rId323" display="mailto:abner4aguilar95@gmail.com"/>
+    <hyperlink ref="J234" r:id="rId324" display="mailto:imeldamachic7@hotmail.com"/>
+    <hyperlink ref="J241" r:id="rId325" display="mailto:isaporoj@gmail.com"/>
+    <hyperlink ref="J240" r:id="rId326" display="mailto:arreagacalderon77@gmail.com"/>
+    <hyperlink ref="J248" r:id="rId327" display="mailto:daar1403@gmail.com"/>
+    <hyperlink ref="J247" r:id="rId328" display="mailto:maiklopez_10@hotmail.com"/>
+    <hyperlink ref="J246" r:id="rId329" display="mailto:onelialvarado17@gmail.com"/>
+    <hyperlink ref="J268" r:id="rId330" display="mailto:tetis.ag@hotmail.com"/>
+    <hyperlink ref="J267" r:id="rId331" display="mailto:elfaeo1@gmail.com"/>
+    <hyperlink ref="J264" r:id="rId332" display="mailto:casigomez325@gmail.com"/>
+    <hyperlink ref="J255" r:id="rId333" display="mailto:odaneiris@hotmail.com"/>
+    <hyperlink ref="J254" r:id="rId334" display="mailto:rosmeryelias@gmail.com"/>
+    <hyperlink ref="J253" r:id="rId335" display="mailto:maybellineitzepaguilar0@gmail.com"/>
+    <hyperlink ref="J252" r:id="rId336" display="mailto:almayarmila@gmail.com"/>
+    <hyperlink ref="J243" r:id="rId337" display="mailto:maritsa-reyes28@hotmail.com"/>
+    <hyperlink ref="J239" r:id="rId338" display="mailto:juanhernny017@gmail.com"/>
+    <hyperlink ref="J238" r:id="rId339" display="mailto:elizabeth_olga456@hotmail.com"/>
+    <hyperlink ref="J237" r:id="rId340" display="mailto:vilmaaracelyj@yahoo.es"/>
+    <hyperlink ref="J220" r:id="rId341" display="mailto:heidilepe.1@gmail.com"/>
+    <hyperlink ref="J219" r:id="rId342" display="mailto:rosanaaguilonlucas@gmail.com"/>
+    <hyperlink ref="J216" r:id="rId343" display="mailto:juanhuinil@gmail.com"/>
+    <hyperlink ref="J215" r:id="rId344" display="mailto:tayito9@hotmail.com"/>
+    <hyperlink ref="J214" r:id="rId345" display="mailto:noeramos905@gmail.com"/>
+    <hyperlink ref="J213" r:id="rId346" display="mailto:byronmendez@gmail.com"/>
+    <hyperlink ref="J232" r:id="rId347" display="mailto:Reinaelizabeth@hotmail.com"/>
+    <hyperlink ref="J231" r:id="rId348" display="mailto:allsa@hotmail.es"/>
+    <hyperlink ref="J212" r:id="rId349" display="mailto:diven.ruiz@gmail.com"/>
+    <hyperlink ref="J211" r:id="rId350" display="mailto:ronysalva2015@hotmail.com"/>
+    <hyperlink ref="J210" r:id="rId351" display="mailto:liolimaldonado@gmail.com"/>
+    <hyperlink ref="J209" r:id="rId352" display="mailto:emug82113@hotmail.com"/>
+    <hyperlink ref="J208" r:id="rId353" display="mailto:azaliaddelacruz@gmail.com"/>
+    <hyperlink ref="J207" r:id="rId354" display="mailto:herlindapaxtor@gmail.com"/>
+    <hyperlink ref="J204" r:id="rId355" display="mailto:leslyalvarado07@gmail.com"/>
+    <hyperlink ref="J201" r:id="rId356" display="mailto:Glendyovalle@gmail.com"/>
+    <hyperlink ref="J39" r:id="rId357" display="mailto:orellanajuanjose@yahoo.com"/>
+    <hyperlink ref="J38" r:id="rId358" display="mailto:eorm.lot8defebjm@gmail.com"/>
+    <hyperlink ref="J70" r:id="rId359" display="mailto:luiscoy100@gmail.com"/>
+    <hyperlink ref="J69" r:id="rId360" display="mailto:mirianramosjuarez@gmail.com"/>
+    <hyperlink ref="J68" r:id="rId361" display="mailto:eliasblanco333@gmail.com"/>
+    <hyperlink ref="J66" r:id="rId362" display="mailto:gildargueta64@gmail.com"/>
+    <hyperlink ref="J65" r:id="rId363" display="mailto:escuela.palinchejv@yahoo.com"/>
+    <hyperlink ref="J311" r:id="rId364" display="mailto:rsantizodeleon2005@gmail.com"/>
+    <hyperlink ref="J287" r:id="rId365" display="mailto:anmadueñas@gmail.com"/>
+    <hyperlink ref="J300" r:id="rId366" display="mailto:Jacobopalacios3@hotmail.com"/>
+    <hyperlink ref="J329" r:id="rId367" display="mailto:edymorente@gmail.com"/>
+    <hyperlink ref="J326" r:id="rId368" display="mailto:margiagonzalez5@gmail.com"/>
+    <hyperlink ref="J323" r:id="rId369" display="mailto:chinitaivir@gmail.com"/>
+    <hyperlink ref="J317" r:id="rId370" display="mailto:mariano.guerra@yahoo.es"/>
+    <hyperlink ref="J314" r:id="rId371" display="mailto:hernandezjosesito27@gmail.com"/>
+    <hyperlink ref="J305" r:id="rId372" display="mailto:yviska@hotmail.com"/>
+    <hyperlink ref="J302" r:id="rId373" display="mailto:patychape@live.com"/>
+    <hyperlink ref="J299" r:id="rId374" display="mailto:gfvlderecho1988@hotmail.com"/>
+    <hyperlink ref="J296" r:id="rId375" display="mailto:karlikarli.1012@gmail.com"/>
+    <hyperlink ref="J293" r:id="rId376" display="mailto:rhperez.23@gmail.com"/>
+    <hyperlink ref="J290" r:id="rId377" display="mailto:lupegar1979@gmail.com"/>
+    <hyperlink ref="J284" r:id="rId378" display="mailto:shanyrodriguez1806@gamil.com"/>
+    <hyperlink ref="J281" r:id="rId379" display="mailto:irismagnoliagr@gmail.com"/>
+    <hyperlink ref="J278" r:id="rId380" display="mailto:figueroacarlos1969@gmail.com"/>
+    <hyperlink ref="J328" r:id="rId381" display="mailto:abraham25_87@hotmail.com"/>
+    <hyperlink ref="J325" r:id="rId382" display="mailto:adubaupez@gmail.com"/>
+    <hyperlink ref="J322" r:id="rId383" display="mailto:zl.orozcodeperez@gmail.com"/>
+    <hyperlink ref="J316" r:id="rId384" display="mailto:magdalenamaria4@gmail.com"/>
+    <hyperlink ref="J313" r:id="rId385" display="mailto:rosendobuchpos07@gmail.com"/>
+    <hyperlink ref="J310" r:id="rId386" display="mailto:valechenol@gmail.com"/>
+    <hyperlink ref="J304" r:id="rId387" display="mailto:silvia.noj@hotmail.com"/>
+    <hyperlink ref="J301" r:id="rId388" display="mailto:loremprios@gmail.com"/>
+    <hyperlink ref="J298" r:id="rId389" display="mailto:rido2711@gmail.com"/>
+    <hyperlink ref="J295" r:id="rId390" display="mailto:joregopast@gmail.com"/>
+    <hyperlink ref="J289" r:id="rId391" display="mailto:rrodash@hotmail.com"/>
+    <hyperlink ref="J286" r:id="rId392" display="mailto:johannat649@gmail.com"/>
+    <hyperlink ref="J283" r:id="rId393" display="mailto:eormsanramon@live.com"/>
+    <hyperlink ref="J280" r:id="rId394" display="mailto:fiazeducando@gmail.com"/>
+    <hyperlink ref="J277" r:id="rId395" display="mailto:reginaldo_8_1@hotmail.com"/>
+    <hyperlink ref="J327" r:id="rId396" display="mailto:israelcosigua7@gmail.com"/>
+    <hyperlink ref="J324" r:id="rId397" display="mailto:ardanisito@gmail.com"/>
+    <hyperlink ref="J321" r:id="rId398" display="mailto:estebanmoralesdouglasadolfo@gmail.com"/>
+    <hyperlink ref="J315" r:id="rId399" display="mailto:anibasquetball33@gmail.com"/>
+    <hyperlink ref="J312" r:id="rId400" display="mailto:nurianwan2011@hotmail.com"/>
+    <hyperlink ref="J309" r:id="rId401" display="mailto:irmacontreras@hotmail.com"/>
+    <hyperlink ref="J303" r:id="rId402" display="mailto:bicasiahugo@yahoo.es"/>
+    <hyperlink ref="J297" r:id="rId403" display="mailto:reidera71@yahoo."/>
+    <hyperlink ref="J294" r:id="rId404" display="mailto:rsalquilsolval@gmail.com"/>
+    <hyperlink ref="J291" r:id="rId405" display="mailto:isarodriguez19@hotmail.com"/>
+    <hyperlink ref="J288" r:id="rId406" display="mailto:eormlasoledad@hotmail.com"/>
+    <hyperlink ref="J285" r:id="rId407" display="mailto:audaguzman@gmail.com"/>
+    <hyperlink ref="J282" r:id="rId408" display="mailto:arreolobito609@gmail.com"/>
+    <hyperlink ref="J279" r:id="rId409" display="panhornamineduc@gmail.com"/>
+    <hyperlink ref="J276" r:id="rId410" display="mailto:brendagamez@hotmail.com"/>
+    <hyperlink ref="J273" r:id="rId411" display="mailto:sandra50lopez@gmail.com"/>
+    <hyperlink ref="J272" r:id="rId412" display="mailto:martineztorrespaula@hotmail.com"/>
+    <hyperlink ref="J271" r:id="rId413" display="mailto:marthalid58@hotmail.com"/>
+    <hyperlink ref="J270" r:id="rId414" display="mailto:lau_geral@yahoo.com"/>
+    <hyperlink ref="J679" r:id="rId415" display="mailto:mayky.12d@gmail.com"/>
+    <hyperlink ref="J647" r:id="rId416" display="mailto:darwinbuenafe105@hotmail.com"/>
+    <hyperlink ref="J646" r:id="rId417" display="mailto:sekoleal@gmail.com"/>
+    <hyperlink ref="J645" r:id="rId418" display="mailto:panhornamineduc@gmail.com"/>
+    <hyperlink ref="J674" r:id="rId419" display="mailto:xiomaracaal82@outlook.com"/>
+    <hyperlink ref="J672" r:id="rId420" display="mailto:mides7@hotmail.com"/>
+    <hyperlink ref="J650" r:id="rId421" display="mailto:marcobotzoc5@gmail.com"/>
+    <hyperlink ref="J649" r:id="rId422" display="mailto:listerg@gmail.com"/>
+    <hyperlink ref="J648" r:id="rId423" display="mailto:hlemus52@gmail.com"/>
+    <hyperlink ref="J678" r:id="rId424" display="mailto:mayky.12d@gmail.com"/>
+    <hyperlink ref="J609" r:id="rId425" display="mailto:saraconor73@gmail.com"/>
+    <hyperlink ref="J631" r:id="rId426" display="mailto:janetsanabria@hotmail.com"/>
+    <hyperlink ref="J630" r:id="rId427" display="mailto:joelestuardocaplopez@gmail.com"/>
+    <hyperlink ref="J628" r:id="rId428" display="mailto:mariaorrego77@yahoo.com"/>
+    <hyperlink ref="J627" r:id="rId429" display="mailto:maagt22@hotmail.com"/>
+    <hyperlink ref="J625" r:id="rId430" display="mailto:celegraj@gmail.com"/>
+    <hyperlink ref="J624" r:id="rId431" display="mailto:lilian112010garcia@gmail.com"/>
+    <hyperlink ref="J623" r:id="rId432" display="mailto:ingridcarlinazulet@hotmail.com"/>
+    <hyperlink ref="J622" r:id="rId433" display="mailto:rammilian@hotmail.com"/>
+    <hyperlink ref="J621" r:id="rId434" display="mailto:nuriabetzaida@gmail.com"/>
+    <hyperlink ref="J620" r:id="rId435" display="mailto:hernandezoema@gmail.com"/>
+    <hyperlink ref="J619" r:id="rId436" display="mailto:rudygarciapaz@gmail.com"/>
+    <hyperlink ref="J615" r:id="rId437" display="mailto:teresa315.mai@gmail.com"/>
+    <hyperlink ref="J614" r:id="rId438" display="mailto:rony.pocop@yahoo.es"/>
+    <hyperlink ref="J613" r:id="rId439" display="mailto:wcarturo9@gmail.com"/>
+    <hyperlink ref="J18" r:id="rId440"/>
+    <hyperlink ref="J20" r:id="rId441"/>
+    <hyperlink ref="J23" r:id="rId442"/>
+    <hyperlink ref="J22" r:id="rId443"/>
+    <hyperlink ref="J21" r:id="rId444"/>
+    <hyperlink ref="J19" r:id="rId445"/>
+    <hyperlink ref="J17" r:id="rId446"/>
+    <hyperlink ref="J16" r:id="rId447"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId456"/>
+  <pageSetup orientation="portrait" r:id="rId448"/>
 </worksheet>
 </file>